--- a/Dataset/Ratings_dataset.xlsx
+++ b/Dataset/Ratings_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python install\python project\Book recommandation\temp\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CF4A04-53F2-4B3F-B365-EEF87DACC29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24631297-5761-409E-9614-918F8E681614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8880" xr2:uid="{5F18922D-0EA3-4F1D-98E2-6A783B0C5444}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F18922D-0EA3-4F1D-98E2-6A783B0C5444}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,21 +45,9 @@
     <t>Rating</t>
   </si>
   <si>
-    <t>AALEKH - Art Elated Club</t>
-  </si>
-  <si>
     <t>AERO</t>
   </si>
   <si>
-    <t>TEAM NIYUDRATH RACING (TNR) - AUTOSPORTS CLUB</t>
-  </si>
-  <si>
-    <t>CodeChef MITAOE Chapter</t>
-  </si>
-  <si>
-    <t>Google Developer Groups</t>
-  </si>
-  <si>
     <t>Digital Design</t>
   </si>
   <si>
@@ -112,6 +100,18 @@
   </si>
   <si>
     <t>Maths</t>
+  </si>
+  <si>
+    <t>NIYUDRATH</t>
+  </si>
+  <si>
+    <t>AALEKH</t>
+  </si>
+  <si>
+    <t>CodeChef</t>
+  </si>
+  <si>
+    <t>Google Developer</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,7 +490,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>8</v>
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -512,7 +512,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>8.5</v>
@@ -523,7 +523,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>9</v>
@@ -534,7 +534,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -545,7 +545,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -556,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -567,7 +567,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -578,7 +578,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -589,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -600,7 +600,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -611,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -622,7 +622,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>7.5</v>
@@ -633,7 +633,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -644,7 +644,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>8</v>
@@ -655,7 +655,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -666,7 +666,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -677,7 +677,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -688,7 +688,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -699,7 +699,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -710,7 +710,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C22">
         <v>8.5</v>
@@ -721,7 +721,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -732,7 +732,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C24">
         <v>8</v>
